--- a/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/Matriz HU Grupo 1 V3.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/Matriz HU Grupo 1 V3.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\2. PRIMERA ITERACIÓN\1.3 Historias de Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9024CE-B340-4B8B-92F5-578EE0F7CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBA911-DA57-47C8-9CCA-4FDC362FBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,17 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,19 +735,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,6 +743,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="B1:S1004"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1252,7 +1252,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="31">
         <v>45295</v>
@@ -1294,7 +1294,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="31">
         <v>45295</v>
@@ -7201,23 +7201,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1">
       <c r="C7" s="7"/>
@@ -7257,15 +7257,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -7280,17 +7280,17 @@
         <v>33</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="58" t="e">
+      <c r="E10" s="55" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,5,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="58" t="e">
+      <c r="H10" s="55" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="56"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="13"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -7322,15 +7322,15 @@
         <v>40</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="13"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -7346,17 +7346,17 @@
         <v>#N/A</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="58" t="e">
+      <c r="E13" s="55" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,10,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="58" t="e">
+      <c r="H13" s="55" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="13"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -7387,65 +7387,65 @@
       <c r="C15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="45" t="e">
+      <c r="D15" s="38" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="10"/>
       <c r="G15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="45" t="e">
+      <c r="H15" s="38" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="39"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="10"/>
       <c r="L15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="45" t="e">
+      <c r="M15" s="38" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1">
       <c r="B16" s="24"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="10"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="44"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="10"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1">
       <c r="B17" s="24"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="10"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="10"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1">
@@ -7467,40 +7467,40 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1">
       <c r="B19" s="24"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="61" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1">
       <c r="B20" s="24"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1">
@@ -7522,63 +7522,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1">
       <c r="B22" s="24"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="45" t="e">
+      <c r="D22" s="57"/>
+      <c r="E22" s="38" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,12,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="45" t="e">
+      <c r="K22" s="57"/>
+      <c r="L22" s="38" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,13,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="25"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1">
       <c r="B23" s="24"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
       <c r="P23" s="25"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1">
       <c r="B24" s="24"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
       <c r="P24" s="25"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1">
@@ -8595,11 +8595,6 @@
     <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -8616,6 +8611,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
